--- a/Plantilla LEDS.xlsx
+++ b/Plantilla LEDS.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proyectosArduino\ARQUI1-Practica1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E17EE364-E61A-45E1-ACEB-EB0255DB95AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7EB6C8-5873-458D-9818-994C37C1C057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8B7CE87B-AA96-4603-935D-07B056FA46DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{8B7CE87B-AA96-4603-935D-07B056FA46DF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Punteos" sheetId="1" r:id="rId1"/>
+    <sheet name="Tablero" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -65,11 +66,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -79,6 +160,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -397,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634B4886-F5CD-46A7-8F96-CD9750497448}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:H26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,4 +1673,422 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C98321-5DF6-4BD9-9B07-00D268A80C06}">
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16" width="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="6">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1" s="7">
+        <v>0</v>
+      </c>
+      <c r="H1" s="8">
+        <v>0</v>
+      </c>
+      <c r="I1" s="6">
+        <v>0</v>
+      </c>
+      <c r="J1" s="7">
+        <v>0</v>
+      </c>
+      <c r="K1" s="7">
+        <v>0</v>
+      </c>
+      <c r="L1" s="7">
+        <v>0</v>
+      </c>
+      <c r="M1" s="7">
+        <v>0</v>
+      </c>
+      <c r="N1" s="7">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7">
+        <v>0</v>
+      </c>
+      <c r="P1" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>0</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Plantilla LEDS.xlsx
+++ b/Plantilla LEDS.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proyectosArduino\ARQUI1-Practica1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debym\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7EB6C8-5873-458D-9818-994C37C1C057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE904EB-18FA-4338-994C-F3006DE489AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{8B7CE87B-AA96-4603-935D-07B056FA46DF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{8B7CE87B-AA96-4603-935D-07B056FA46DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Punteos" sheetId="1" r:id="rId1"/>
     <sheet name="Tablero" sheetId="2" r:id="rId2"/>
+    <sheet name="Letras" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -54,6 +55,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -187,6 +206,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -506,16 +534,16 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="2" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="17" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -566,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -617,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -668,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -719,7 +747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -770,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -821,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -872,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -924,7 +952,7 @@
       </c>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -943,7 +971,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -994,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -1045,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -1096,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -1147,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -1198,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -1249,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -1300,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -1351,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1370,7 +1398,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -1405,7 +1433,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -1440,7 +1468,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -1475,7 +1503,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -1510,7 +1538,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -1545,7 +1573,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -1580,7 +1608,7 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -1615,7 +1643,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -1650,7 +1678,7 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1679,16 +1707,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C98321-5DF6-4BD9-9B07-00D268A80C06}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="6">
         <v>0</v>
       </c>
@@ -1738,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>0</v>
       </c>
@@ -1788,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>0</v>
       </c>
@@ -1838,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>0</v>
       </c>
@@ -1888,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>0</v>
       </c>
@@ -1938,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>0</v>
       </c>
@@ -1988,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>0</v>
       </c>
@@ -2038,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>0</v>
       </c>
@@ -2091,4 +2119,3312 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A283C79D-667B-4633-9801-8851E52E7B77}">
+  <dimension ref="A1:AI39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="AE34" sqref="AE34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="77" width="2.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14">
+        <v>0</v>
+      </c>
+      <c r="D1" s="14">
+        <v>0</v>
+      </c>
+      <c r="E1" s="14">
+        <v>0</v>
+      </c>
+      <c r="F1" s="14">
+        <v>0</v>
+      </c>
+      <c r="G1" s="14">
+        <v>0</v>
+      </c>
+      <c r="H1" s="14">
+        <v>0</v>
+      </c>
+      <c r="I1" s="14">
+        <v>0</v>
+      </c>
+      <c r="J1" s="14">
+        <v>0</v>
+      </c>
+      <c r="K1" s="14">
+        <v>0</v>
+      </c>
+      <c r="L1" s="14">
+        <v>0</v>
+      </c>
+      <c r="M1" s="14">
+        <v>0</v>
+      </c>
+      <c r="N1" s="14">
+        <v>0</v>
+      </c>
+      <c r="O1" s="14">
+        <v>0</v>
+      </c>
+      <c r="P1" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="16">
+        <v>1</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="14">
+        <v>0</v>
+      </c>
+      <c r="T1" s="14">
+        <v>0</v>
+      </c>
+      <c r="U1" s="14">
+        <v>0</v>
+      </c>
+      <c r="V1" s="14">
+        <v>0</v>
+      </c>
+      <c r="W1" s="14">
+        <v>0</v>
+      </c>
+      <c r="X1" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15">
+        <v>0</v>
+      </c>
+      <c r="K2" s="15">
+        <v>0</v>
+      </c>
+      <c r="L2" s="14">
+        <v>0</v>
+      </c>
+      <c r="M2" s="14">
+        <v>0</v>
+      </c>
+      <c r="N2" s="14">
+        <v>0</v>
+      </c>
+      <c r="O2" s="15">
+        <v>0</v>
+      </c>
+      <c r="P2" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>2</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="14">
+        <v>0</v>
+      </c>
+      <c r="T2" s="14">
+        <v>0</v>
+      </c>
+      <c r="U2" s="14">
+        <v>0</v>
+      </c>
+      <c r="V2" s="14">
+        <v>0</v>
+      </c>
+      <c r="W2" s="14">
+        <v>0</v>
+      </c>
+      <c r="X2" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0</v>
+      </c>
+      <c r="L3" s="14">
+        <v>0</v>
+      </c>
+      <c r="M3" s="14">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15">
+        <v>0</v>
+      </c>
+      <c r="O3" s="15">
+        <v>0</v>
+      </c>
+      <c r="P3" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>3</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="14">
+        <v>0</v>
+      </c>
+      <c r="T3" s="14">
+        <v>0</v>
+      </c>
+      <c r="U3" s="14">
+        <v>0</v>
+      </c>
+      <c r="V3" s="14">
+        <v>0</v>
+      </c>
+      <c r="W3" s="14">
+        <v>0</v>
+      </c>
+      <c r="X3" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0</v>
+      </c>
+      <c r="O4" s="15">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>4</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="14">
+        <v>0</v>
+      </c>
+      <c r="T4" s="15">
+        <v>0</v>
+      </c>
+      <c r="U4" s="15">
+        <v>0</v>
+      </c>
+      <c r="V4" s="15">
+        <v>0</v>
+      </c>
+      <c r="W4" s="14">
+        <v>0</v>
+      </c>
+      <c r="X4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0</v>
+      </c>
+      <c r="M5" s="14">
+        <v>0</v>
+      </c>
+      <c r="N5" s="14">
+        <v>0</v>
+      </c>
+      <c r="O5" s="15">
+        <v>0</v>
+      </c>
+      <c r="P5" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>5</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="14">
+        <v>0</v>
+      </c>
+      <c r="T5" s="14">
+        <v>0</v>
+      </c>
+      <c r="U5" s="14">
+        <v>0</v>
+      </c>
+      <c r="V5" s="14">
+        <v>0</v>
+      </c>
+      <c r="W5" s="14">
+        <v>0</v>
+      </c>
+      <c r="X5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0</v>
+      </c>
+      <c r="M6" s="14">
+        <v>0</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0</v>
+      </c>
+      <c r="O6" s="15">
+        <v>0</v>
+      </c>
+      <c r="P6" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>6</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="14">
+        <v>0</v>
+      </c>
+      <c r="T6" s="14">
+        <v>0</v>
+      </c>
+      <c r="U6" s="14">
+        <v>0</v>
+      </c>
+      <c r="V6" s="14">
+        <v>0</v>
+      </c>
+      <c r="W6" s="14">
+        <v>0</v>
+      </c>
+      <c r="X6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0</v>
+      </c>
+      <c r="O7" s="15">
+        <v>0</v>
+      </c>
+      <c r="P7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>7</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="14">
+        <v>0</v>
+      </c>
+      <c r="T7" s="14">
+        <v>0</v>
+      </c>
+      <c r="U7" s="14">
+        <v>0</v>
+      </c>
+      <c r="V7" s="14">
+        <v>0</v>
+      </c>
+      <c r="W7" s="14">
+        <v>0</v>
+      </c>
+      <c r="X7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
+      <c r="M8" s="14">
+        <v>0</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0</v>
+      </c>
+      <c r="P8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>8</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>0</v>
+      </c>
+      <c r="U8" s="14">
+        <v>0</v>
+      </c>
+      <c r="V8" s="14">
+        <v>0</v>
+      </c>
+      <c r="W8" s="14">
+        <v>0</v>
+      </c>
+      <c r="X8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>1</v>
+      </c>
+      <c r="B9" s="16">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16">
+        <v>3</v>
+      </c>
+      <c r="D9" s="16">
+        <v>4</v>
+      </c>
+      <c r="E9" s="16">
+        <v>5</v>
+      </c>
+      <c r="F9" s="16">
+        <v>6</v>
+      </c>
+      <c r="G9" s="16">
+        <v>7</v>
+      </c>
+      <c r="H9" s="16">
+        <v>8</v>
+      </c>
+      <c r="I9" s="16">
+        <v>9</v>
+      </c>
+      <c r="J9" s="16">
+        <v>10</v>
+      </c>
+      <c r="K9" s="16">
+        <v>11</v>
+      </c>
+      <c r="L9" s="16">
+        <v>12</v>
+      </c>
+      <c r="M9" s="16">
+        <v>13</v>
+      </c>
+      <c r="N9" s="16">
+        <v>14</v>
+      </c>
+      <c r="O9" s="16">
+        <v>15</v>
+      </c>
+      <c r="P9" s="16">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="S9" s="16">
+        <v>1</v>
+      </c>
+      <c r="T9" s="16">
+        <v>2</v>
+      </c>
+      <c r="U9" s="16">
+        <v>3</v>
+      </c>
+      <c r="V9" s="16">
+        <v>4</v>
+      </c>
+      <c r="W9" s="16">
+        <v>5</v>
+      </c>
+      <c r="X9" s="16">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>8</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>9</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>10</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>11</v>
+      </c>
+      <c r="AD9" s="16">
+        <v>12</v>
+      </c>
+      <c r="AE9" s="16">
+        <v>13</v>
+      </c>
+      <c r="AF9" s="16">
+        <v>14</v>
+      </c>
+      <c r="AG9" s="16">
+        <v>15</v>
+      </c>
+      <c r="AH9" s="16">
+        <v>16</v>
+      </c>
+      <c r="AI9" s="2"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>0</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14">
+        <v>0</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0</v>
+      </c>
+      <c r="P11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>1</v>
+      </c>
+      <c r="S11" s="14">
+        <v>0</v>
+      </c>
+      <c r="T11" s="14">
+        <v>0</v>
+      </c>
+      <c r="U11" s="14">
+        <v>0</v>
+      </c>
+      <c r="V11" s="14">
+        <v>0</v>
+      </c>
+      <c r="W11" s="14">
+        <v>0</v>
+      </c>
+      <c r="X11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>0</v>
+      </c>
+      <c r="B12" s="15">
+        <v>0</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0</v>
+      </c>
+      <c r="M12" s="15">
+        <v>0</v>
+      </c>
+      <c r="N12" s="15">
+        <v>0</v>
+      </c>
+      <c r="O12" s="15">
+        <v>0</v>
+      </c>
+      <c r="P12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>2</v>
+      </c>
+      <c r="S12" s="14">
+        <v>0</v>
+      </c>
+      <c r="T12" s="14">
+        <v>0</v>
+      </c>
+      <c r="U12" s="14">
+        <v>0</v>
+      </c>
+      <c r="V12" s="15">
+        <v>0</v>
+      </c>
+      <c r="W12" s="14">
+        <v>0</v>
+      </c>
+      <c r="X12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>0</v>
+      </c>
+      <c r="B13" s="15">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="15">
+        <v>0</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0</v>
+      </c>
+      <c r="N13" s="14">
+        <v>0</v>
+      </c>
+      <c r="O13" s="15">
+        <v>0</v>
+      </c>
+      <c r="P13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>3</v>
+      </c>
+      <c r="S13" s="14">
+        <v>0</v>
+      </c>
+      <c r="T13" s="14">
+        <v>0</v>
+      </c>
+      <c r="U13" s="15">
+        <v>0</v>
+      </c>
+      <c r="V13" s="15">
+        <v>0</v>
+      </c>
+      <c r="W13" s="14">
+        <v>0</v>
+      </c>
+      <c r="X13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>0</v>
+      </c>
+      <c r="B14" s="15">
+        <v>0</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0</v>
+      </c>
+      <c r="I14" s="15">
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0</v>
+      </c>
+      <c r="K14" s="14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0</v>
+      </c>
+      <c r="M14" s="14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="15">
+        <v>0</v>
+      </c>
+      <c r="P14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>4</v>
+      </c>
+      <c r="S14" s="14">
+        <v>0</v>
+      </c>
+      <c r="T14" s="15">
+        <v>0</v>
+      </c>
+      <c r="U14" s="14">
+        <v>0</v>
+      </c>
+      <c r="V14" s="15">
+        <v>0</v>
+      </c>
+      <c r="W14" s="14">
+        <v>0</v>
+      </c>
+      <c r="X14" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <v>0</v>
+      </c>
+      <c r="B15" s="15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0</v>
+      </c>
+      <c r="K15" s="14">
+        <v>0</v>
+      </c>
+      <c r="L15" s="15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="14">
+        <v>0</v>
+      </c>
+      <c r="N15" s="14">
+        <v>0</v>
+      </c>
+      <c r="O15" s="15">
+        <v>0</v>
+      </c>
+      <c r="P15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>5</v>
+      </c>
+      <c r="S15" s="14">
+        <v>0</v>
+      </c>
+      <c r="T15" s="14">
+        <v>0</v>
+      </c>
+      <c r="U15" s="14">
+        <v>0</v>
+      </c>
+      <c r="V15" s="15">
+        <v>0</v>
+      </c>
+      <c r="W15" s="14">
+        <v>0</v>
+      </c>
+      <c r="X15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>0</v>
+      </c>
+      <c r="B16" s="15">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0</v>
+      </c>
+      <c r="K16" s="14">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="M16" s="14">
+        <v>0</v>
+      </c>
+      <c r="N16" s="14">
+        <v>0</v>
+      </c>
+      <c r="O16" s="15">
+        <v>0</v>
+      </c>
+      <c r="P16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>6</v>
+      </c>
+      <c r="S16" s="14">
+        <v>0</v>
+      </c>
+      <c r="T16" s="14">
+        <v>0</v>
+      </c>
+      <c r="U16" s="14">
+        <v>0</v>
+      </c>
+      <c r="V16" s="15">
+        <v>0</v>
+      </c>
+      <c r="W16" s="14">
+        <v>0</v>
+      </c>
+      <c r="X16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>0</v>
+      </c>
+      <c r="B17" s="15">
+        <v>0</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0</v>
+      </c>
+      <c r="K17" s="14">
+        <v>0</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0</v>
+      </c>
+      <c r="M17" s="15">
+        <v>0</v>
+      </c>
+      <c r="N17" s="15">
+        <v>0</v>
+      </c>
+      <c r="O17" s="15">
+        <v>0</v>
+      </c>
+      <c r="P17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>7</v>
+      </c>
+      <c r="S17" s="14">
+        <v>0</v>
+      </c>
+      <c r="T17" s="14">
+        <v>0</v>
+      </c>
+      <c r="U17" s="14">
+        <v>0</v>
+      </c>
+      <c r="V17" s="15">
+        <v>0</v>
+      </c>
+      <c r="W17" s="14">
+        <v>0</v>
+      </c>
+      <c r="X17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>0</v>
+      </c>
+      <c r="B18" s="14">
+        <v>0</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0</v>
+      </c>
+      <c r="H18" s="14">
+        <v>0</v>
+      </c>
+      <c r="I18" s="14">
+        <v>0</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0</v>
+      </c>
+      <c r="K18" s="14">
+        <v>0</v>
+      </c>
+      <c r="L18" s="14">
+        <v>0</v>
+      </c>
+      <c r="M18" s="14">
+        <v>0</v>
+      </c>
+      <c r="N18" s="14">
+        <v>0</v>
+      </c>
+      <c r="O18" s="14">
+        <v>0</v>
+      </c>
+      <c r="P18" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>8</v>
+      </c>
+      <c r="S18" s="14">
+        <v>0</v>
+      </c>
+      <c r="T18" s="14">
+        <v>0</v>
+      </c>
+      <c r="U18" s="14">
+        <v>0</v>
+      </c>
+      <c r="V18" s="14">
+        <v>0</v>
+      </c>
+      <c r="W18" s="14">
+        <v>0</v>
+      </c>
+      <c r="X18" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>1</v>
+      </c>
+      <c r="B19" s="16">
+        <v>2</v>
+      </c>
+      <c r="C19" s="16">
+        <v>3</v>
+      </c>
+      <c r="D19" s="16">
+        <v>4</v>
+      </c>
+      <c r="E19" s="16">
+        <v>5</v>
+      </c>
+      <c r="F19" s="16">
+        <v>6</v>
+      </c>
+      <c r="G19" s="16">
+        <v>7</v>
+      </c>
+      <c r="H19" s="16">
+        <v>8</v>
+      </c>
+      <c r="I19" s="16">
+        <v>9</v>
+      </c>
+      <c r="J19" s="16">
+        <v>10</v>
+      </c>
+      <c r="K19" s="16">
+        <v>11</v>
+      </c>
+      <c r="L19" s="16">
+        <v>12</v>
+      </c>
+      <c r="M19" s="16">
+        <v>13</v>
+      </c>
+      <c r="N19" s="16">
+        <v>14</v>
+      </c>
+      <c r="O19" s="16">
+        <v>15</v>
+      </c>
+      <c r="P19" s="16">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="S19" s="16">
+        <v>1</v>
+      </c>
+      <c r="T19" s="16">
+        <v>2</v>
+      </c>
+      <c r="U19" s="16">
+        <v>3</v>
+      </c>
+      <c r="V19" s="16">
+        <v>4</v>
+      </c>
+      <c r="W19" s="16">
+        <v>5</v>
+      </c>
+      <c r="X19" s="16">
+        <v>6</v>
+      </c>
+      <c r="Y19" s="16">
+        <v>7</v>
+      </c>
+      <c r="Z19" s="16">
+        <v>8</v>
+      </c>
+      <c r="AA19" s="16">
+        <v>9</v>
+      </c>
+      <c r="AB19" s="16">
+        <v>10</v>
+      </c>
+      <c r="AC19" s="16">
+        <v>11</v>
+      </c>
+      <c r="AD19" s="16">
+        <v>12</v>
+      </c>
+      <c r="AE19" s="16">
+        <v>13</v>
+      </c>
+      <c r="AF19" s="16">
+        <v>14</v>
+      </c>
+      <c r="AG19" s="16">
+        <v>15</v>
+      </c>
+      <c r="AH19" s="16">
+        <v>16</v>
+      </c>
+      <c r="AI19" s="2"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>0</v>
+      </c>
+      <c r="B21" s="14">
+        <v>0</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14">
+        <v>0</v>
+      </c>
+      <c r="H21" s="14">
+        <v>0</v>
+      </c>
+      <c r="I21" s="14">
+        <v>0</v>
+      </c>
+      <c r="J21" s="14">
+        <v>0</v>
+      </c>
+      <c r="K21" s="14">
+        <v>0</v>
+      </c>
+      <c r="L21" s="14">
+        <v>0</v>
+      </c>
+      <c r="M21" s="14">
+        <v>0</v>
+      </c>
+      <c r="N21" s="14">
+        <v>0</v>
+      </c>
+      <c r="O21" s="14">
+        <v>0</v>
+      </c>
+      <c r="P21" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>1</v>
+      </c>
+      <c r="S21" s="14">
+        <v>0</v>
+      </c>
+      <c r="T21" s="14">
+        <v>0</v>
+      </c>
+      <c r="U21" s="14">
+        <v>0</v>
+      </c>
+      <c r="V21" s="14">
+        <v>0</v>
+      </c>
+      <c r="W21" s="14">
+        <v>0</v>
+      </c>
+      <c r="X21" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>0</v>
+      </c>
+      <c r="B22" s="15">
+        <v>0</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0</v>
+      </c>
+      <c r="F22" s="14">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
+        <v>0</v>
+      </c>
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
+        <v>0</v>
+      </c>
+      <c r="K22" s="14">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
+      <c r="N22" s="15">
+        <v>0</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0</v>
+      </c>
+      <c r="P22" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>2</v>
+      </c>
+      <c r="S22" s="14">
+        <v>0</v>
+      </c>
+      <c r="T22" s="15">
+        <v>0</v>
+      </c>
+      <c r="U22" s="15">
+        <v>0</v>
+      </c>
+      <c r="V22" s="15">
+        <v>0</v>
+      </c>
+      <c r="W22" s="15">
+        <v>0</v>
+      </c>
+      <c r="X22" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <v>0</v>
+      </c>
+      <c r="B23" s="15">
+        <v>0</v>
+      </c>
+      <c r="C23" s="14">
+        <v>0</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0</v>
+      </c>
+      <c r="I23" s="14">
+        <v>0</v>
+      </c>
+      <c r="J23" s="14">
+        <v>0</v>
+      </c>
+      <c r="K23" s="14">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
+        <v>0</v>
+      </c>
+      <c r="M23" s="14">
+        <v>0</v>
+      </c>
+      <c r="N23" s="14">
+        <v>0</v>
+      </c>
+      <c r="O23" s="14">
+        <v>0</v>
+      </c>
+      <c r="P23" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>3</v>
+      </c>
+      <c r="S23" s="14">
+        <v>0</v>
+      </c>
+      <c r="T23" s="14">
+        <v>0</v>
+      </c>
+      <c r="U23" s="14">
+        <v>0</v>
+      </c>
+      <c r="V23" s="15">
+        <v>0</v>
+      </c>
+      <c r="W23" s="14">
+        <v>0</v>
+      </c>
+      <c r="X23" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>0</v>
+      </c>
+      <c r="B24" s="15">
+        <v>0</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0</v>
+      </c>
+      <c r="I24" s="14">
+        <v>0</v>
+      </c>
+      <c r="J24" s="14">
+        <v>0</v>
+      </c>
+      <c r="K24" s="14">
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="14">
+        <v>0</v>
+      </c>
+      <c r="N24" s="14">
+        <v>0</v>
+      </c>
+      <c r="O24" s="14">
+        <v>0</v>
+      </c>
+      <c r="P24" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>4</v>
+      </c>
+      <c r="S24" s="14">
+        <v>0</v>
+      </c>
+      <c r="T24" s="14">
+        <v>0</v>
+      </c>
+      <c r="U24" s="14">
+        <v>0</v>
+      </c>
+      <c r="V24" s="15">
+        <v>0</v>
+      </c>
+      <c r="W24" s="14">
+        <v>0</v>
+      </c>
+      <c r="X24" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
+        <v>0</v>
+      </c>
+      <c r="B25" s="15">
+        <v>0</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0</v>
+      </c>
+      <c r="H25" s="14">
+        <v>0</v>
+      </c>
+      <c r="I25" s="14">
+        <v>0</v>
+      </c>
+      <c r="J25" s="14">
+        <v>0</v>
+      </c>
+      <c r="K25" s="14">
+        <v>0</v>
+      </c>
+      <c r="L25" s="15">
+        <v>0</v>
+      </c>
+      <c r="M25" s="14">
+        <v>0</v>
+      </c>
+      <c r="N25" s="14">
+        <v>0</v>
+      </c>
+      <c r="O25" s="14">
+        <v>0</v>
+      </c>
+      <c r="P25" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>5</v>
+      </c>
+      <c r="S25" s="14">
+        <v>0</v>
+      </c>
+      <c r="T25" s="14">
+        <v>0</v>
+      </c>
+      <c r="U25" s="14">
+        <v>0</v>
+      </c>
+      <c r="V25" s="15">
+        <v>0</v>
+      </c>
+      <c r="W25" s="14">
+        <v>0</v>
+      </c>
+      <c r="X25" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <v>0</v>
+      </c>
+      <c r="B26" s="15">
+        <v>0</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="14">
+        <v>0</v>
+      </c>
+      <c r="I26" s="14">
+        <v>0</v>
+      </c>
+      <c r="J26" s="14">
+        <v>0</v>
+      </c>
+      <c r="K26" s="14">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="14">
+        <v>0</v>
+      </c>
+      <c r="N26" s="14">
+        <v>0</v>
+      </c>
+      <c r="O26" s="14">
+        <v>0</v>
+      </c>
+      <c r="P26" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="16">
+        <v>6</v>
+      </c>
+      <c r="S26" s="14">
+        <v>0</v>
+      </c>
+      <c r="T26" s="14">
+        <v>0</v>
+      </c>
+      <c r="U26" s="14">
+        <v>0</v>
+      </c>
+      <c r="V26" s="15">
+        <v>0</v>
+      </c>
+      <c r="W26" s="14">
+        <v>0</v>
+      </c>
+      <c r="X26" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
+        <v>0</v>
+      </c>
+      <c r="B27" s="15">
+        <v>0</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15">
+        <v>0</v>
+      </c>
+      <c r="I27" s="15">
+        <v>0</v>
+      </c>
+      <c r="J27" s="15">
+        <v>0</v>
+      </c>
+      <c r="K27" s="14">
+        <v>0</v>
+      </c>
+      <c r="L27" s="15">
+        <v>0</v>
+      </c>
+      <c r="M27" s="15">
+        <v>0</v>
+      </c>
+      <c r="N27" s="15">
+        <v>0</v>
+      </c>
+      <c r="O27" s="15">
+        <v>0</v>
+      </c>
+      <c r="P27" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>7</v>
+      </c>
+      <c r="S27" s="14">
+        <v>0</v>
+      </c>
+      <c r="T27" s="15">
+        <v>0</v>
+      </c>
+      <c r="U27" s="15">
+        <v>0</v>
+      </c>
+      <c r="V27" s="15">
+        <v>0</v>
+      </c>
+      <c r="W27" s="15">
+        <v>0</v>
+      </c>
+      <c r="X27" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
+        <v>0</v>
+      </c>
+      <c r="B28" s="14">
+        <v>0</v>
+      </c>
+      <c r="C28" s="14">
+        <v>0</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0</v>
+      </c>
+      <c r="G28" s="14">
+        <v>0</v>
+      </c>
+      <c r="H28" s="14">
+        <v>0</v>
+      </c>
+      <c r="I28" s="14">
+        <v>0</v>
+      </c>
+      <c r="J28" s="14">
+        <v>0</v>
+      </c>
+      <c r="K28" s="14">
+        <v>0</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
+      <c r="M28" s="14">
+        <v>0</v>
+      </c>
+      <c r="N28" s="14">
+        <v>0</v>
+      </c>
+      <c r="O28" s="14">
+        <v>0</v>
+      </c>
+      <c r="P28" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="16">
+        <v>8</v>
+      </c>
+      <c r="S28" s="14">
+        <v>0</v>
+      </c>
+      <c r="T28" s="14">
+        <v>0</v>
+      </c>
+      <c r="U28" s="14">
+        <v>0</v>
+      </c>
+      <c r="V28" s="14">
+        <v>0</v>
+      </c>
+      <c r="W28" s="14">
+        <v>0</v>
+      </c>
+      <c r="X28" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
+        <v>1</v>
+      </c>
+      <c r="B29" s="16">
+        <v>2</v>
+      </c>
+      <c r="C29" s="16">
+        <v>3</v>
+      </c>
+      <c r="D29" s="16">
+        <v>4</v>
+      </c>
+      <c r="E29" s="16">
+        <v>5</v>
+      </c>
+      <c r="F29" s="16">
+        <v>6</v>
+      </c>
+      <c r="G29" s="16">
+        <v>7</v>
+      </c>
+      <c r="H29" s="16">
+        <v>8</v>
+      </c>
+      <c r="I29" s="16">
+        <v>9</v>
+      </c>
+      <c r="J29" s="16">
+        <v>10</v>
+      </c>
+      <c r="K29" s="16">
+        <v>11</v>
+      </c>
+      <c r="L29" s="16">
+        <v>12</v>
+      </c>
+      <c r="M29" s="16">
+        <v>13</v>
+      </c>
+      <c r="N29" s="16">
+        <v>14</v>
+      </c>
+      <c r="O29" s="16">
+        <v>15</v>
+      </c>
+      <c r="P29" s="16">
+        <v>16</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="S29" s="16">
+        <v>1</v>
+      </c>
+      <c r="T29" s="16">
+        <v>2</v>
+      </c>
+      <c r="U29" s="16">
+        <v>3</v>
+      </c>
+      <c r="V29" s="16">
+        <v>4</v>
+      </c>
+      <c r="W29" s="16">
+        <v>5</v>
+      </c>
+      <c r="X29" s="16">
+        <v>6</v>
+      </c>
+      <c r="Y29" s="16">
+        <v>7</v>
+      </c>
+      <c r="Z29" s="16">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="16">
+        <v>9</v>
+      </c>
+      <c r="AB29" s="16">
+        <v>10</v>
+      </c>
+      <c r="AC29" s="16">
+        <v>11</v>
+      </c>
+      <c r="AD29" s="16">
+        <v>12</v>
+      </c>
+      <c r="AE29" s="16">
+        <v>13</v>
+      </c>
+      <c r="AF29" s="16">
+        <v>14</v>
+      </c>
+      <c r="AG29" s="16">
+        <v>15</v>
+      </c>
+      <c r="AH29" s="16">
+        <v>16</v>
+      </c>
+      <c r="AI29" s="2"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
+        <v>0</v>
+      </c>
+      <c r="B31" s="14">
+        <v>0</v>
+      </c>
+      <c r="C31" s="14">
+        <v>0</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0</v>
+      </c>
+      <c r="F31" s="14">
+        <v>0</v>
+      </c>
+      <c r="G31" s="14">
+        <v>0</v>
+      </c>
+      <c r="H31" s="14">
+        <v>0</v>
+      </c>
+      <c r="I31" s="14">
+        <v>0</v>
+      </c>
+      <c r="J31" s="14">
+        <v>0</v>
+      </c>
+      <c r="K31" s="14">
+        <v>0</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0</v>
+      </c>
+      <c r="M31" s="14">
+        <v>0</v>
+      </c>
+      <c r="N31" s="14">
+        <v>0</v>
+      </c>
+      <c r="O31" s="14">
+        <v>0</v>
+      </c>
+      <c r="P31" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A32" s="14">
+        <v>0</v>
+      </c>
+      <c r="B32" s="15">
+        <v>0</v>
+      </c>
+      <c r="C32" s="14">
+        <v>0</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0</v>
+      </c>
+      <c r="E32" s="14">
+        <v>0</v>
+      </c>
+      <c r="F32" s="15">
+        <v>0</v>
+      </c>
+      <c r="G32" s="14">
+        <v>0</v>
+      </c>
+      <c r="H32" s="14">
+        <v>0</v>
+      </c>
+      <c r="I32" s="14">
+        <v>0</v>
+      </c>
+      <c r="J32" s="14">
+        <v>0</v>
+      </c>
+      <c r="K32" s="14">
+        <v>0</v>
+      </c>
+      <c r="L32" s="14">
+        <v>0</v>
+      </c>
+      <c r="M32" s="15">
+        <v>0</v>
+      </c>
+      <c r="N32" s="15">
+        <v>0</v>
+      </c>
+      <c r="O32" s="14">
+        <v>0</v>
+      </c>
+      <c r="P32" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="14">
+        <v>0</v>
+      </c>
+      <c r="B33" s="15">
+        <v>0</v>
+      </c>
+      <c r="C33" s="15">
+        <v>0</v>
+      </c>
+      <c r="D33" s="14">
+        <v>0</v>
+      </c>
+      <c r="E33" s="14">
+        <v>0</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0</v>
+      </c>
+      <c r="G33" s="14">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14">
+        <v>0</v>
+      </c>
+      <c r="I33" s="14">
+        <v>0</v>
+      </c>
+      <c r="J33" s="14">
+        <v>0</v>
+      </c>
+      <c r="K33" s="14">
+        <v>0</v>
+      </c>
+      <c r="L33" s="15">
+        <v>0</v>
+      </c>
+      <c r="M33" s="14">
+        <v>0</v>
+      </c>
+      <c r="N33" s="14">
+        <v>0</v>
+      </c>
+      <c r="O33" s="15">
+        <v>0</v>
+      </c>
+      <c r="P33" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="14">
+        <v>0</v>
+      </c>
+      <c r="B34" s="15">
+        <v>0</v>
+      </c>
+      <c r="C34" s="15">
+        <v>0</v>
+      </c>
+      <c r="D34" s="15">
+        <v>0</v>
+      </c>
+      <c r="E34" s="14">
+        <v>0</v>
+      </c>
+      <c r="F34" s="15">
+        <v>0</v>
+      </c>
+      <c r="G34" s="14">
+        <v>0</v>
+      </c>
+      <c r="H34" s="15">
+        <v>0</v>
+      </c>
+      <c r="I34" s="15">
+        <v>0</v>
+      </c>
+      <c r="J34" s="15">
+        <v>0</v>
+      </c>
+      <c r="K34" s="14">
+        <v>0</v>
+      </c>
+      <c r="L34" s="15">
+        <v>0</v>
+      </c>
+      <c r="M34" s="14">
+        <v>0</v>
+      </c>
+      <c r="N34" s="14">
+        <v>0</v>
+      </c>
+      <c r="O34" s="15">
+        <v>0</v>
+      </c>
+      <c r="P34" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="14">
+        <v>0</v>
+      </c>
+      <c r="B35" s="15">
+        <v>0</v>
+      </c>
+      <c r="C35" s="14">
+        <v>0</v>
+      </c>
+      <c r="D35" s="15">
+        <v>0</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15">
+        <v>0</v>
+      </c>
+      <c r="G35" s="14">
+        <v>0</v>
+      </c>
+      <c r="H35" s="14">
+        <v>0</v>
+      </c>
+      <c r="I35" s="14">
+        <v>0</v>
+      </c>
+      <c r="J35" s="14">
+        <v>0</v>
+      </c>
+      <c r="K35" s="14">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="15">
+        <v>0</v>
+      </c>
+      <c r="P35" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="14">
+        <v>0</v>
+      </c>
+      <c r="B36" s="15">
+        <v>0</v>
+      </c>
+      <c r="C36" s="14">
+        <v>0</v>
+      </c>
+      <c r="D36" s="14">
+        <v>0</v>
+      </c>
+      <c r="E36" s="15">
+        <v>0</v>
+      </c>
+      <c r="F36" s="15">
+        <v>0</v>
+      </c>
+      <c r="G36" s="14">
+        <v>0</v>
+      </c>
+      <c r="H36" s="14">
+        <v>0</v>
+      </c>
+      <c r="I36" s="14">
+        <v>0</v>
+      </c>
+      <c r="J36" s="14">
+        <v>0</v>
+      </c>
+      <c r="K36" s="14">
+        <v>0</v>
+      </c>
+      <c r="L36" s="15">
+        <v>0</v>
+      </c>
+      <c r="M36" s="14">
+        <v>0</v>
+      </c>
+      <c r="N36" s="14">
+        <v>0</v>
+      </c>
+      <c r="O36" s="15">
+        <v>0</v>
+      </c>
+      <c r="P36" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="14">
+        <v>0</v>
+      </c>
+      <c r="B37" s="15">
+        <v>0</v>
+      </c>
+      <c r="C37" s="14">
+        <v>0</v>
+      </c>
+      <c r="D37" s="14">
+        <v>0</v>
+      </c>
+      <c r="E37" s="14">
+        <v>0</v>
+      </c>
+      <c r="F37" s="15">
+        <v>0</v>
+      </c>
+      <c r="G37" s="14">
+        <v>0</v>
+      </c>
+      <c r="H37" s="14">
+        <v>0</v>
+      </c>
+      <c r="I37" s="14">
+        <v>0</v>
+      </c>
+      <c r="J37" s="14">
+        <v>0</v>
+      </c>
+      <c r="K37" s="14">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="14">
+        <v>0</v>
+      </c>
+      <c r="N37" s="14">
+        <v>0</v>
+      </c>
+      <c r="O37" s="15">
+        <v>0</v>
+      </c>
+      <c r="P37" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="14">
+        <v>0</v>
+      </c>
+      <c r="B38" s="14">
+        <v>0</v>
+      </c>
+      <c r="C38" s="14">
+        <v>0</v>
+      </c>
+      <c r="D38" s="14">
+        <v>0</v>
+      </c>
+      <c r="E38" s="14">
+        <v>0</v>
+      </c>
+      <c r="F38" s="14">
+        <v>0</v>
+      </c>
+      <c r="G38" s="14">
+        <v>0</v>
+      </c>
+      <c r="H38" s="14">
+        <v>0</v>
+      </c>
+      <c r="I38" s="14">
+        <v>0</v>
+      </c>
+      <c r="J38" s="14">
+        <v>0</v>
+      </c>
+      <c r="K38" s="14">
+        <v>0</v>
+      </c>
+      <c r="L38" s="14">
+        <v>0</v>
+      </c>
+      <c r="M38" s="14">
+        <v>0</v>
+      </c>
+      <c r="N38" s="14">
+        <v>0</v>
+      </c>
+      <c r="O38" s="14">
+        <v>0</v>
+      </c>
+      <c r="P38" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="16">
+        <v>1</v>
+      </c>
+      <c r="B39" s="16">
+        <v>2</v>
+      </c>
+      <c r="C39" s="16">
+        <v>3</v>
+      </c>
+      <c r="D39" s="16">
+        <v>4</v>
+      </c>
+      <c r="E39" s="16">
+        <v>5</v>
+      </c>
+      <c r="F39" s="16">
+        <v>6</v>
+      </c>
+      <c r="G39" s="16">
+        <v>7</v>
+      </c>
+      <c r="H39" s="16">
+        <v>8</v>
+      </c>
+      <c r="I39" s="16">
+        <v>9</v>
+      </c>
+      <c r="J39" s="16">
+        <v>10</v>
+      </c>
+      <c r="K39" s="16">
+        <v>11</v>
+      </c>
+      <c r="L39" s="16">
+        <v>12</v>
+      </c>
+      <c r="M39" s="16">
+        <v>13</v>
+      </c>
+      <c r="N39" s="16">
+        <v>14</v>
+      </c>
+      <c r="O39" s="16">
+        <v>15</v>
+      </c>
+      <c r="P39" s="16">
+        <v>16</v>
+      </c>
+      <c r="Q39" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>